--- a/medicine/Enfance/Jean-Philippe_Blondel/Jean-Philippe_Blondel.xlsx
+++ b/medicine/Enfance/Jean-Philippe_Blondel/Jean-Philippe_Blondel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Philippe Blondel (né à Troyes en octobre 1964) est un écrivain français. Il enseigne également l'anglais au lycée Édouard-Herriot de Sainte-Savine, commune limitrophe de sa ville natale[1]. Depuis 2021, il publie également tous les mois dans l'Est-Éclair une page consacrée à l'actualité littéraire[réf. souhaitée].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Philippe Blondel (né à Troyes en octobre 1964) est un écrivain français. Il enseigne également l'anglais au lycée Édouard-Herriot de Sainte-Savine, commune limitrophe de sa ville natale. Depuis 2021, il publie également tous les mois dans l'Est-Éclair une page consacrée à l'actualité littéraire[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Philippe Blondel enseigne l'anglais dans le lycée Edouard Herriot de sa ville natale depuis les années 1990. Il mène en parallèle une carrière d'écrivain, en littérature générale comme en jeunesse.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2003 : Accès direct à la plage, éditions Delphine Montalant
 2003 : 1979, éditions Delphine Montalant
@@ -601,7 +617,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix de la 1re nouvelle rock pour I live by the river, lors de la première édition du concours de Café Castor.
 Prix Littéraire Québec-France Marie-Claire-Blais, pour Accès direct à la plage, 2005.
